--- a/resources/experiment 1/predictions/single/LinearRegression/upto time/Edema macular diabético (UPTO).xlsx
+++ b/resources/experiment 1/predictions/single/LinearRegression/upto time/Edema macular diabético (UPTO).xlsx
@@ -647,7 +647,7 @@
         <v>0.3232873918360742</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.003079768375687644</v>
+        <v>0.01977737448145521</v>
       </c>
       <c r="AA2" t="n">
         <v>0.9044523895037743</v>
@@ -667,10 +667,10 @@
         <v>-7.579845320946434</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.404820797178533</v>
+        <v>-4.404820797178534</v>
       </c>
       <c r="F3" t="n">
-        <v>-10.92419410824627</v>
+        <v>-10.92419410824626</v>
       </c>
       <c r="G3" t="n">
         <v>-10.87404156192149</v>
@@ -682,16 +682,16 @@
         <v>-14.36778550062779</v>
       </c>
       <c r="J3" t="n">
-        <v>-4.44175229085505</v>
+        <v>-4.441752290855051</v>
       </c>
       <c r="K3" t="n">
-        <v>-3.64243309846977</v>
+        <v>-3.642433098469771</v>
       </c>
       <c r="L3" t="n">
         <v>-4.527429893632446</v>
       </c>
       <c r="M3" t="n">
-        <v>5.338141158508262</v>
+        <v>5.338141158508264</v>
       </c>
       <c r="N3" t="n">
         <v>2.541241953484351</v>
@@ -706,13 +706,13 @@
         <v>3.615523039493203</v>
       </c>
       <c r="R3" t="n">
-        <v>8.461163534952203</v>
+        <v>8.461163534952201</v>
       </c>
       <c r="S3" t="n">
         <v>4.427867897512852</v>
       </c>
       <c r="T3" t="n">
-        <v>2.566909608069973</v>
+        <v>2.566909608069972</v>
       </c>
       <c r="U3" t="n">
         <v>6.397229180005525</v>
@@ -730,7 +730,7 @@
         <v>0.5532335975145229</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03522979835219278</v>
+        <v>0.0580869412093357</v>
       </c>
       <c r="AA3" t="n">
         <v>1.281043188135149</v>
@@ -753,7 +753,7 @@
         <v>-3.330043921298854</v>
       </c>
       <c r="F4" t="n">
-        <v>-8.426125905082923</v>
+        <v>-8.42612590508292</v>
       </c>
       <c r="G4" t="n">
         <v>-9.087800545198423</v>
@@ -762,19 +762,19 @@
         <v>-5.883634567270572</v>
       </c>
       <c r="I4" t="n">
-        <v>-12.01792125529856</v>
+        <v>-12.01792125529855</v>
       </c>
       <c r="J4" t="n">
         <v>-1.994050407155099</v>
       </c>
       <c r="K4" t="n">
-        <v>-2.075883990158962</v>
+        <v>-2.075883990158963</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.371906049813726</v>
+        <v>-1.371906049813727</v>
       </c>
       <c r="M4" t="n">
-        <v>8.173196239962746</v>
+        <v>8.173196239962747</v>
       </c>
       <c r="N4" t="n">
         <v>4.409633871906651</v>
@@ -783,7 +783,7 @@
         <v>12.3385197902774</v>
       </c>
       <c r="P4" t="n">
-        <v>7.292778120750816</v>
+        <v>7.292778120750817</v>
       </c>
       <c r="Q4" t="n">
         <v>4.491053555217348</v>
@@ -792,10 +792,10 @@
         <v>10.19279596707841</v>
       </c>
       <c r="S4" t="n">
-        <v>4.841186960373131</v>
+        <v>4.84118696037313</v>
       </c>
       <c r="T4" t="n">
-        <v>2.775991227751615</v>
+        <v>2.775991227751614</v>
       </c>
       <c r="U4" t="n">
         <v>7.038225807806608</v>
@@ -813,7 +813,7 @@
         <v>0.5387987082609305</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0381862049546569</v>
+        <v>0.06104334781179983</v>
       </c>
       <c r="AA4" t="n">
         <v>1.285524727103357</v>
@@ -836,13 +836,13 @@
         <v>-2.162907491719705</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.815116460627443</v>
+        <v>-4.815116460627437</v>
       </c>
       <c r="G5" t="n">
         <v>-4.246192425028357</v>
       </c>
       <c r="H5" t="n">
-        <v>-3.086387815596258</v>
+        <v>-3.086387815596257</v>
       </c>
       <c r="I5" t="n">
         <v>-5.084617434005073</v>
@@ -851,16 +851,16 @@
         <v>-2.357702697633172</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.156266370648195</v>
+        <v>-2.156266370648197</v>
       </c>
       <c r="L5" t="n">
         <v>-1.894363712222949</v>
       </c>
       <c r="M5" t="n">
-        <v>0.7639117422043515</v>
+        <v>0.7639117422043533</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.2925290813728143</v>
+        <v>-0.2925290813728134</v>
       </c>
       <c r="O5" t="n">
         <v>2.268519700220153</v>
@@ -872,7 +872,7 @@
         <v>1.286747826172605</v>
       </c>
       <c r="R5" t="n">
-        <v>4.482708996230098</v>
+        <v>4.482708996230097</v>
       </c>
       <c r="S5" t="n">
         <v>2.753726784518417</v>
@@ -887,7 +887,7 @@
         <v>1.746782521535693</v>
       </c>
       <c r="W5" t="n">
-        <v>0.6962143436030244</v>
+        <v>0.6962143436030243</v>
       </c>
       <c r="X5" t="n">
         <v>2.918288735449842</v>
@@ -896,7 +896,7 @@
         <v>0.4263072903973789</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.009337081148750825</v>
+        <v>0.0321942240058937</v>
       </c>
       <c r="AA5" t="n">
         <v>1.028180820983348</v>
@@ -919,34 +919,34 @@
         <v>0.6096304608140189</v>
       </c>
       <c r="F6" t="n">
-        <v>2.108057886772798</v>
+        <v>2.108057886772801</v>
       </c>
       <c r="G6" t="n">
-        <v>3.156823384084526</v>
+        <v>3.156823384084527</v>
       </c>
       <c r="H6" t="n">
         <v>1.60835149422959</v>
       </c>
       <c r="I6" t="n">
-        <v>4.983517274424392</v>
+        <v>4.983517274424391</v>
       </c>
       <c r="J6" t="n">
         <v>4.033769400666494</v>
       </c>
       <c r="K6" t="n">
-        <v>2.054230874533668</v>
+        <v>2.054230874533667</v>
       </c>
       <c r="L6" t="n">
         <v>6.424368999422325</v>
       </c>
       <c r="M6" t="n">
-        <v>4.059159969523284</v>
+        <v>4.059159969523285</v>
       </c>
       <c r="N6" t="n">
         <v>1.979370362713517</v>
       </c>
       <c r="O6" t="n">
-        <v>6.566478123429775</v>
+        <v>6.566478123429773</v>
       </c>
       <c r="P6" t="n">
         <v>3.625494525884098</v>
@@ -979,7 +979,7 @@
         <v>0.3400352956688343</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0.001461836692233235</v>
+        <v>0.02139530616490962</v>
       </c>
       <c r="AA6" t="n">
         <v>0.9056382474183617</v>
@@ -1008,7 +1008,7 @@
         <v>1.306877764151308</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5872816185569705</v>
+        <v>0.5872816185569709</v>
       </c>
       <c r="I7" t="n">
         <v>2.095996128865988</v>
@@ -1032,7 +1032,7 @@
         <v>19.97895484242914</v>
       </c>
       <c r="P7" t="n">
-        <v>9.16650802555219</v>
+        <v>9.166508025552188</v>
       </c>
       <c r="Q7" t="n">
         <v>5.663083908431768</v>
@@ -1041,7 +1041,7 @@
         <v>12.88376763845752</v>
       </c>
       <c r="S7" t="n">
-        <v>5.093059636750768</v>
+        <v>5.093059636750767</v>
       </c>
       <c r="T7" t="n">
         <v>2.761675627792219</v>
@@ -1062,7 +1062,7 @@
         <v>0.4522340113989558</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.02155782467969054</v>
+        <v>0.04441496753683344</v>
       </c>
       <c r="AA7" t="n">
         <v>1.155623267347075</v>
@@ -1082,13 +1082,13 @@
         <v>1.522856357803294</v>
       </c>
       <c r="E8" t="n">
-        <v>1.039568680810258</v>
+        <v>1.039568680810259</v>
       </c>
       <c r="F8" t="n">
-        <v>1.919512593066714</v>
+        <v>1.91951259306671</v>
       </c>
       <c r="G8" t="n">
-        <v>6.687744884257577</v>
+        <v>6.687744884257574</v>
       </c>
       <c r="H8" t="n">
         <v>4.182032000571196</v>
@@ -1100,7 +1100,7 @@
         <v>18.01547182924045</v>
       </c>
       <c r="K8" t="n">
-        <v>11.00729231079661</v>
+        <v>11.00729231079662</v>
       </c>
       <c r="L8" t="n">
         <v>25.09405643450351</v>
@@ -1124,7 +1124,7 @@
         <v>21.33629611624879</v>
       </c>
       <c r="S8" t="n">
-        <v>7.447493884553716</v>
+        <v>7.447493884553715</v>
       </c>
       <c r="T8" t="n">
         <v>4.091845167260272</v>
@@ -1145,7 +1145,7 @@
         <v>0.4761404199547952</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.03503369235869402</v>
+        <v>0.05789083521583695</v>
       </c>
       <c r="AA8" t="n">
         <v>1.284757203019302</v>
@@ -1168,7 +1168,7 @@
         <v>-0.8433078265520944</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.698148192193853</v>
+        <v>-1.69814819219385</v>
       </c>
       <c r="G9" t="n">
         <v>0.187304953784758</v>
@@ -1183,13 +1183,13 @@
         <v>3.294440293581438</v>
       </c>
       <c r="K9" t="n">
-        <v>1.534024620389189</v>
+        <v>1.534024620389188</v>
       </c>
       <c r="L9" t="n">
-        <v>5.568603864252966</v>
+        <v>5.568603864252964</v>
       </c>
       <c r="M9" t="n">
-        <v>6.287776526049854</v>
+        <v>6.287776526049855</v>
       </c>
       <c r="N9" t="n">
         <v>3.364256629922308</v>
@@ -1198,22 +1198,22 @@
         <v>9.559742065893808</v>
       </c>
       <c r="P9" t="n">
-        <v>5.157221938232357</v>
+        <v>5.157221938232358</v>
       </c>
       <c r="Q9" t="n">
         <v>2.892722063972037</v>
       </c>
       <c r="R9" t="n">
-        <v>7.688624682663283</v>
+        <v>7.688624682663282</v>
       </c>
       <c r="S9" t="n">
         <v>3.504857932385983</v>
       </c>
       <c r="T9" t="n">
-        <v>1.818570928053168</v>
+        <v>1.818570928053167</v>
       </c>
       <c r="U9" t="n">
-        <v>5.493553819719987</v>
+        <v>5.493553819719986</v>
       </c>
       <c r="V9" t="n">
         <v>1.854454953978941</v>
@@ -1228,7 +1228,7 @@
         <v>0.4075390741188814</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.00897427361336019</v>
+        <v>0.03183141647050307</v>
       </c>
       <c r="AA9" t="n">
         <v>1.028686452377261</v>
@@ -1251,13 +1251,13 @@
         <v>1.662552881584624</v>
       </c>
       <c r="F10" t="n">
-        <v>3.846550534140267</v>
+        <v>3.846550534140264</v>
       </c>
       <c r="G10" t="n">
         <v>10.51827865992433</v>
       </c>
       <c r="H10" t="n">
-        <v>6.429284288339699</v>
+        <v>6.4292842883397</v>
       </c>
       <c r="I10" t="n">
         <v>14.40274184802151</v>
@@ -1266,7 +1266,7 @@
         <v>19.51154016014021</v>
       </c>
       <c r="K10" t="n">
-        <v>12.08469133935686</v>
+        <v>12.08469133935687</v>
       </c>
       <c r="L10" t="n">
         <v>27.10174145851134</v>
@@ -1302,16 +1302,16 @@
         <v>2.522718607916529</v>
       </c>
       <c r="W10" t="n">
-        <v>0.9418169871977761</v>
+        <v>0.941816987197776</v>
       </c>
       <c r="X10" t="n">
         <v>4.707616644404361</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.4187382037334356</v>
+        <v>0.4187382037334357</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.01832196131278172</v>
+        <v>0.04117910416992462</v>
       </c>
       <c r="AA10" t="n">
         <v>1.1532515515179</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3.392689731850163</v>
+        <v>3.392689731850162</v>
       </c>
       <c r="E11" t="n">
         <v>1.842071280632862</v>
@@ -1364,7 +1364,7 @@
         <v>17.20017711804555</v>
       </c>
       <c r="P11" t="n">
-        <v>7.030951843033731</v>
+        <v>7.030951843033732</v>
       </c>
       <c r="Q11" t="n">
         <v>4.064752417186458</v>
@@ -1379,13 +1379,13 @@
         <v>1.804255328093772</v>
       </c>
       <c r="U11" t="n">
-        <v>6.268103825944831</v>
+        <v>6.26810382594483</v>
       </c>
       <c r="V11" t="n">
         <v>1.657147756787119</v>
       </c>
       <c r="W11" t="n">
-        <v>0.5457132232001359</v>
+        <v>0.5457132232001358</v>
       </c>
       <c r="X11" t="n">
         <v>3.215044366078967</v>
@@ -1394,7 +1394,7 @@
         <v>0.3209743772569068</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.007654106661606173</v>
+        <v>0.01520303619553667</v>
       </c>
       <c r="AA11" t="n">
         <v>0.8987849926209788</v>
@@ -1414,7 +1414,7 @@
         <v>5.802488497792987</v>
       </c>
       <c r="E12" t="n">
-        <v>3.096366555560778</v>
+        <v>3.096366555560779</v>
       </c>
       <c r="F12" t="n">
         <v>8.836035599661869</v>
@@ -1432,7 +1432,7 @@
         <v>9.322260101403032</v>
       </c>
       <c r="K12" t="n">
-        <v>5.664139485081819</v>
+        <v>5.664139485081818</v>
       </c>
       <c r="L12" t="n">
         <v>13.36487891348902</v>
@@ -1456,10 +1456,10 @@
         <v>3.298165800014797</v>
       </c>
       <c r="S12" t="n">
-        <v>1.361661139042815</v>
+        <v>1.361661139042816</v>
       </c>
       <c r="T12" t="n">
-        <v>0.3128853682532429</v>
+        <v>0.3128853682532431</v>
       </c>
       <c r="U12" t="n">
         <v>2.889410865230247</v>
@@ -1468,7 +1468,7 @@
         <v>0.8529517270175816</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1725927301101712</v>
+        <v>0.1725927301101713</v>
       </c>
       <c r="X12" t="n">
         <v>1.888901217657624</v>
@@ -1477,7 +1477,7 @@
         <v>0.2087756615267853</v>
       </c>
       <c r="Z12" t="n">
-        <v>-0.03067376803352994</v>
+        <v>-0.007816625176387145</v>
       </c>
       <c r="AA12" t="n">
         <v>0.6487999726922659</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7.641996234284624</v>
+        <v>7.641996234284625</v>
       </c>
       <c r="E13" t="n">
         <v>4.282627598529887</v>
@@ -1545,7 +1545,7 @@
         <v>1.619731107995586</v>
       </c>
       <c r="U13" t="n">
-        <v>6.438727583858293</v>
+        <v>6.438727583858292</v>
       </c>
       <c r="V13" t="n">
         <v>1.413542948511922</v>
@@ -1557,10 +1557,10 @@
         <v>3.033457241906485</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2387430074198372</v>
+        <v>0.2387430074198371</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.02096327279871778</v>
+        <v>0.001893870058425038</v>
       </c>
       <c r="AA13" t="n">
         <v>0.7728594404389914</v>
@@ -1583,7 +1583,7 @@
         <v>2.750857339194192</v>
       </c>
       <c r="F14" t="n">
-        <v>7.214493540904121</v>
+        <v>7.214493540904119</v>
       </c>
       <c r="G14" t="n">
         <v>12.54042734893095</v>
@@ -1607,7 +1607,7 @@
         <v>15.01914230977621</v>
       </c>
       <c r="N14" t="n">
-        <v>9.244942909974073</v>
+        <v>9.244942909974071</v>
       </c>
       <c r="O14" t="n">
         <v>20.94683315218061</v>
@@ -1643,7 +1643,7 @@
         <v>0.3085598004490517</v>
       </c>
       <c r="Z14" t="n">
-        <v>-0.005952824207205827</v>
+        <v>0.01690431864993702</v>
       </c>
       <c r="AA14" t="n">
         <v>0.9015750422806862</v>
@@ -1663,16 +1663,16 @@
         <v>0.5831197446366705</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07900581373912363</v>
+        <v>0.07900581373912319</v>
       </c>
       <c r="F15" t="n">
-        <v>1.293961186991381</v>
+        <v>1.293961186991386</v>
       </c>
       <c r="G15" t="n">
-        <v>2.381656711864771</v>
+        <v>2.381656711864772</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9346024471067276</v>
+        <v>0.934602447106728</v>
       </c>
       <c r="I15" t="n">
         <v>4.198550632617637</v>
@@ -1681,13 +1681,13 @@
         <v>-0.2736531044112951</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.6700996428266226</v>
+        <v>-0.6700996428266244</v>
       </c>
       <c r="L15" t="n">
         <v>0.7387024691865491</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.81031767409956</v>
+        <v>-3.810317674099558</v>
       </c>
       <c r="N15" t="n">
         <v>-3.126300116229978</v>
@@ -1702,22 +1702,22 @@
         <v>-1.042027387147994</v>
       </c>
       <c r="R15" t="n">
-        <v>0.5042544575079955</v>
+        <v>0.5042544575079937</v>
       </c>
       <c r="S15" t="n">
-        <v>1.079585671523982</v>
+        <v>1.079585671523983</v>
       </c>
       <c r="T15" t="n">
         <v>0.311651768395498</v>
       </c>
       <c r="U15" t="n">
-        <v>2.100032707209524</v>
+        <v>2.100032707209523</v>
       </c>
       <c r="V15" t="n">
         <v>1.044228040098804</v>
       </c>
       <c r="W15" t="n">
-        <v>0.3305261493485342</v>
+        <v>0.3305261493485343</v>
       </c>
       <c r="X15" t="n">
         <v>1.910342602399219</v>
@@ -1726,7 +1726,7 @@
         <v>0.2993809832802349</v>
       </c>
       <c r="Z15" t="n">
-        <v>-0.01655563605469113</v>
+        <v>0.006301506802451697</v>
       </c>
       <c r="AA15" t="n">
         <v>0.7753184538315471</v>
@@ -1746,13 +1746,13 @@
         <v>0.7509437142795812</v>
       </c>
       <c r="E16" t="n">
-        <v>0.27764882617732</v>
+        <v>0.2776488261773198</v>
       </c>
       <c r="F16" t="n">
-        <v>1.35639063161556</v>
+        <v>1.356390631615562</v>
       </c>
       <c r="G16" t="n">
-        <v>3.501229522231322</v>
+        <v>3.501229522231323</v>
       </c>
       <c r="H16" t="n">
         <v>1.766189598507596</v>
@@ -1785,7 +1785,7 @@
         <v>1.728334457311738</v>
       </c>
       <c r="R16" t="n">
-        <v>5.699397413302232</v>
+        <v>5.699397413302231</v>
       </c>
       <c r="S16" t="n">
         <v>2.667787375888766</v>
@@ -1800,7 +1800,7 @@
         <v>1.503177713260496</v>
       </c>
       <c r="W16" t="n">
-        <v>0.53181232901979</v>
+        <v>0.5318123290197899</v>
       </c>
       <c r="X16" t="n">
         <v>2.73670161127736</v>
@@ -1809,7 +1809,7 @@
         <v>0.3440759205603093</v>
       </c>
       <c r="Z16" t="n">
-        <v>-0.003972084988360785</v>
+        <v>0.01888505786878207</v>
       </c>
       <c r="AA16" t="n">
         <v>0.9022552688013606</v>
@@ -1859,7 +1859,7 @@
         <v>0.9979916211687572</v>
       </c>
       <c r="O17" t="n">
-        <v>4.057153335841475</v>
+        <v>4.057153335841473</v>
       </c>
       <c r="P17" t="n">
         <v>1.655741380863092</v>
@@ -1871,19 +1871,19 @@
         <v>3.504045142270189</v>
       </c>
       <c r="S17" t="n">
-        <v>1.422066721325207</v>
+        <v>1.422066721325208</v>
       </c>
       <c r="T17" t="n">
-        <v>0.3439837678875237</v>
+        <v>0.3439837678875246</v>
       </c>
       <c r="U17" t="n">
-        <v>2.919067168822008</v>
+        <v>2.919067168822009</v>
       </c>
       <c r="V17" t="n">
         <v>0.8650134952387805</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1946122975272435</v>
+        <v>0.1946122975272436</v>
       </c>
       <c r="X17" t="n">
         <v>1.897279071621843</v>
@@ -1892,7 +1892,7 @@
         <v>0.2006944117438353</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.02565327144127484</v>
+        <v>-0.002796128584132036</v>
       </c>
       <c r="AA17" t="n">
         <v>0.6555659299262682</v>
@@ -1915,7 +1915,7 @@
         <v>-2.998062286662155</v>
       </c>
       <c r="F18" t="n">
-        <v>-7.674458649925683</v>
+        <v>-7.67445864992568</v>
       </c>
       <c r="G18" t="n">
         <v>-9.432206683345218</v>
@@ -1939,13 +1939,13 @@
         <v>8.231694391588132</v>
       </c>
       <c r="N18" t="n">
-        <v>4.441633122126444</v>
+        <v>4.441633122126443</v>
       </c>
       <c r="O18" t="n">
         <v>12.47324625867505</v>
       </c>
       <c r="P18" t="n">
-        <v>7.375679639499541</v>
+        <v>7.375679639499542</v>
       </c>
       <c r="Q18" t="n">
         <v>4.54908827267689</v>
@@ -1954,7 +1954,7 @@
         <v>10.29573563820611</v>
       </c>
       <c r="S18" t="n">
-        <v>4.871389751514327</v>
+        <v>4.871389751514326</v>
       </c>
       <c r="T18" t="n">
         <v>2.791540427568755</v>
@@ -1975,7 +1975,7 @@
         <v>0.5347580833694554</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.04069645325078446</v>
+        <v>0.06355359610792738</v>
       </c>
       <c r="AA18" t="n">
         <v>1.288907705720358</v>
@@ -2013,7 +2013,7 @@
         <v>15.12575093738058</v>
       </c>
       <c r="K19" t="n">
-        <v>9.465869031002358</v>
+        <v>9.465869031002356</v>
       </c>
       <c r="L19" t="n">
         <v>21.05823046773262</v>
@@ -2037,7 +2037,7 @@
         <v>6.452611650884133</v>
       </c>
       <c r="S19" t="n">
-        <v>2.097690891339783</v>
+        <v>2.097690891339784</v>
       </c>
       <c r="T19" t="n">
         <v>0.6844010081651051</v>
@@ -2049,7 +2049,7 @@
         <v>0.9576087174055296</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1855299207999139</v>
+        <v>0.185529920799914</v>
       </c>
       <c r="X19" t="n">
         <v>2.209192696519399</v>
@@ -2058,7 +2058,7 @@
         <v>0.1920277576940252</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.03229169971698435</v>
+        <v>-0.009434556859841556</v>
       </c>
       <c r="AA19" t="n">
         <v>0.6476141147776784</v>
@@ -2084,7 +2084,7 @@
         <v>8.217135534391623</v>
       </c>
       <c r="G20" t="n">
-        <v>9.784672520977654</v>
+        <v>9.784672520977656</v>
       </c>
       <c r="H20" t="n">
         <v>5.629341756932575</v>
@@ -2096,7 +2096,7 @@
         <v>6.117818993888372</v>
       </c>
       <c r="K20" t="n">
-        <v>3.540397602355242</v>
+        <v>3.540397602355241</v>
       </c>
       <c r="L20" t="n">
         <v>9.057435180831824</v>
@@ -2105,7 +2105,7 @@
         <v>-0.5150694467806254</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.8544006721436466</v>
+        <v>-0.8544006721436475</v>
       </c>
       <c r="O20" t="n">
         <v>0.3104973017064108</v>
@@ -2117,13 +2117,13 @@
         <v>-0.5424060385493172</v>
       </c>
       <c r="R20" t="n">
-        <v>1.823882545707825</v>
+        <v>1.823882545707824</v>
       </c>
       <c r="S20" t="n">
         <v>1.023849054035527</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1426767481144522</v>
+        <v>0.1426767481144526</v>
       </c>
       <c r="U20" t="n">
         <v>2.285484616918867</v>
@@ -2132,16 +2132,16 @@
         <v>0.806654115934207</v>
       </c>
       <c r="W20" t="n">
-        <v>0.177133918473836</v>
+        <v>0.1771339184738361</v>
       </c>
       <c r="X20" t="n">
         <v>1.732944405208846</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2131089885516904</v>
+        <v>0.2131089885516903</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.02735455389567519</v>
+        <v>-0.004497411038532382</v>
       </c>
       <c r="AA20" t="n">
         <v>0.6527758802665609</v>
@@ -2161,13 +2161,13 @@
         <v>1.821622729953503</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8218010549821035</v>
+        <v>0.8218010549821033</v>
       </c>
       <c r="F21" t="n">
-        <v>3.040362134997486</v>
+        <v>3.04036213499749</v>
       </c>
       <c r="G21" t="n">
-        <v>4.512303866734629</v>
+        <v>4.51230386673463</v>
       </c>
       <c r="H21" t="n">
         <v>2.316184062413407</v>
@@ -2179,13 +2179,13 @@
         <v>2.47674446881454</v>
       </c>
       <c r="K21" t="n">
-        <v>1.119326575250494</v>
+        <v>1.119326575250492</v>
       </c>
       <c r="L21" t="n">
         <v>4.35499426854066</v>
       </c>
       <c r="M21" t="n">
-        <v>-1.033760744270461</v>
+        <v>-1.033760744270459</v>
       </c>
       <c r="N21" t="n">
         <v>-1.28990744802747</v>
@@ -2200,13 +2200,13 @@
         <v>-0.2245315888833916</v>
       </c>
       <c r="R21" t="n">
-        <v>2.132947218506512</v>
+        <v>2.13294721850651</v>
       </c>
       <c r="S21" t="n">
-        <v>1.462701943243064</v>
+        <v>1.462701943243065</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5051841882599992</v>
+        <v>0.5051841882599994</v>
       </c>
       <c r="U21" t="n">
         <v>2.726201183214725</v>
@@ -2215,16 +2215,16 @@
         <v>1.099571977348078</v>
       </c>
       <c r="W21" t="n">
-        <v>0.3424996365476736</v>
+        <v>0.3424996365476737</v>
       </c>
       <c r="X21" t="n">
         <v>2.072582805321161</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.2889867189181174</v>
+        <v>0.2889867189181173</v>
       </c>
       <c r="Z21" t="n">
-        <v>-0.01610947774835456</v>
+        <v>0.00674766510878827</v>
       </c>
       <c r="AA21" t="n">
         <v>0.7764170141827539</v>
@@ -2247,10 +2247,10 @@
         <v>2.617518716995689</v>
       </c>
       <c r="F22" t="n">
-        <v>6.52525573037106</v>
+        <v>6.525255730371057</v>
       </c>
       <c r="G22" t="n">
-        <v>14.0044062974443</v>
+        <v>14.00440629744429</v>
       </c>
       <c r="H22" t="n">
         <v>8.518698471830195</v>
@@ -2259,7 +2259,7 @@
         <v>19.28659994281941</v>
       </c>
       <c r="J22" t="n">
-        <v>20.70491280151409</v>
+        <v>20.7049128015141</v>
       </c>
       <c r="K22" t="n">
         <v>12.9392132581508</v>
@@ -2283,10 +2283,10 @@
         <v>7.62359270118102</v>
       </c>
       <c r="R22" t="n">
-        <v>17.15196223527129</v>
+        <v>17.1519622352713</v>
       </c>
       <c r="S22" t="n">
-        <v>5.712947189276888</v>
+        <v>5.712947189276887</v>
       </c>
       <c r="T22" t="n">
         <v>2.933117847788754</v>
@@ -2307,7 +2307,7 @@
         <v>0.3572953626206011</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.004120478562996965</v>
+        <v>0.02697762142013984</v>
       </c>
       <c r="AA22" t="n">
         <v>1.025128878633499</v>
@@ -2324,16 +2324,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>3.697623949412366</v>
+        <v>3.697623949412365</v>
       </c>
       <c r="E23" t="n">
         <v>1.863925735741936</v>
       </c>
       <c r="F23" t="n">
-        <v>5.85183452111527</v>
+        <v>5.851834521115275</v>
       </c>
       <c r="G23" t="n">
-        <v>5.006769004017745</v>
+        <v>5.006769004017746</v>
       </c>
       <c r="H23" t="n">
         <v>2.629421369902208</v>
@@ -2345,13 +2345,13 @@
         <v>0.1629803131478784</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.3727704984484506</v>
+        <v>-0.3727704984484523</v>
       </c>
       <c r="L23" t="n">
-        <v>1.133699648820519</v>
+        <v>1.133699648820521</v>
       </c>
       <c r="M23" t="n">
-        <v>-5.980436079000745</v>
+        <v>-5.980436079000741</v>
       </c>
       <c r="N23" t="n">
         <v>-4.479187133218978</v>
@@ -2366,13 +2366,13 @@
         <v>-2.090345558889207</v>
       </c>
       <c r="R23" t="n">
-        <v>-1.279093469597663</v>
+        <v>-1.279093469597665</v>
       </c>
       <c r="S23" t="n">
-        <v>0.3029206973091565</v>
+        <v>0.3029206973091574</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.2210642918888397</v>
+        <v>-0.2210642918888388</v>
       </c>
       <c r="U23" t="n">
         <v>1.055389892602284</v>
@@ -2381,7 +2381,7 @@
         <v>0.7050125676015586</v>
       </c>
       <c r="W23" t="n">
-        <v>0.1697016196383614</v>
+        <v>0.1697016196383616</v>
       </c>
       <c r="X23" t="n">
         <v>1.414747389838126</v>
@@ -2390,7 +2390,7 @@
         <v>0.2278365799387129</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.024481498064157</v>
+        <v>-0.001624355207014195</v>
       </c>
       <c r="AA23" t="n">
         <v>0.6556532274896489</v>
@@ -2407,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4825029796846012</v>
+        <v>0.4825029796846017</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1116580088589705</v>
+        <v>0.1116580088589703</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9805570040369402</v>
+        <v>0.9805570040369433</v>
       </c>
       <c r="G24" t="n">
         <v>3.67343259130472</v>
@@ -2422,16 +2422,16 @@
         <v>1.845108650646599</v>
       </c>
       <c r="I24" t="n">
-        <v>5.71033945888404</v>
+        <v>5.710339458884039</v>
       </c>
       <c r="J24" t="n">
         <v>4.487812934955319</v>
       </c>
       <c r="K24" t="n">
-        <v>2.388546539183129</v>
+        <v>2.388546539183128</v>
       </c>
       <c r="L24" t="n">
-        <v>7.115520932725409</v>
+        <v>7.115520932725408</v>
       </c>
       <c r="M24" t="n">
         <v>3.971412742085207</v>
@@ -2446,7 +2446,7 @@
         <v>3.501142247761009</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.699317098581966</v>
+        <v>1.699317098581967</v>
       </c>
       <c r="R24" t="n">
         <v>5.647927577738383</v>
@@ -2464,16 +2464,16 @@
         <v>1.500162271205197</v>
       </c>
       <c r="W24" t="n">
-        <v>0.526307437165522</v>
+        <v>0.5263074371655219</v>
       </c>
       <c r="X24" t="n">
         <v>2.734607147786305</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.3460962330060469</v>
+        <v>0.3460962330060468</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.005227209136424559</v>
+        <v>0.01762993372071829</v>
       </c>
       <c r="AA24" t="n">
         <v>0.90056377949286</v>
@@ -2496,13 +2496,13 @@
         <v>-1.798273661963159</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.376853388424645</v>
+        <v>-4.376853388424643</v>
       </c>
       <c r="G25" t="n">
         <v>-3.298822683735204</v>
       </c>
       <c r="H25" t="n">
-        <v>-2.333719716334394</v>
+        <v>-2.333719716334393</v>
       </c>
       <c r="I25" t="n">
         <v>-4.05737673071177</v>
@@ -2514,31 +2514,31 @@
         <v>0.6795027015952471</v>
       </c>
       <c r="L25" t="n">
-        <v>4.021686795780521</v>
+        <v>4.02168679578052</v>
       </c>
       <c r="M25" t="n">
-        <v>8.604140310014502</v>
+        <v>8.604140310014504</v>
       </c>
       <c r="N25" t="n">
-        <v>4.797141772460787</v>
+        <v>4.797141772460786</v>
       </c>
       <c r="O25" t="n">
         <v>12.75509571095431</v>
       </c>
       <c r="P25" t="n">
-        <v>6.813301628703707</v>
+        <v>6.813301628703708</v>
       </c>
       <c r="Q25" t="n">
         <v>4.086127029362108</v>
       </c>
       <c r="R25" t="n">
-        <v>9.729321787588184</v>
+        <v>9.729321787588182</v>
       </c>
       <c r="S25" t="n">
         <v>4.357029884453799</v>
       </c>
       <c r="T25" t="n">
-        <v>2.390159987880357</v>
+        <v>2.390159987880356</v>
       </c>
       <c r="U25" t="n">
         <v>6.575267013816928</v>
@@ -2553,10 +2553,10 @@
         <v>3.746742207819037</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.4689819152317158</v>
+        <v>0.4689819152317159</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.02317575636314494</v>
+        <v>0.04603289922028785</v>
       </c>
       <c r="AA25" t="n">
         <v>1.156809125261662</v>
@@ -2576,13 +2576,13 @@
         <v>2.895385668333422</v>
       </c>
       <c r="E26" t="n">
-        <v>1.485764324255501</v>
+        <v>1.485764324255502</v>
       </c>
       <c r="F26" t="n">
-        <v>4.543696645311964</v>
+        <v>4.543696645311966</v>
       </c>
       <c r="G26" t="n">
-        <v>3.823491590441038</v>
+        <v>3.823491590441039</v>
       </c>
       <c r="H26" t="n">
         <v>2.000507853857394</v>
@@ -2594,34 +2594,34 @@
         <v>1.871353089762774</v>
       </c>
       <c r="K26" t="n">
-        <v>0.6735723557178783</v>
+        <v>0.6735723557178774</v>
       </c>
       <c r="L26" t="n">
-        <v>3.433458357469879</v>
+        <v>3.433458357469881</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.9167644410196907</v>
+        <v>-0.9167644410196889</v>
       </c>
       <c r="N26" t="n">
         <v>-1.225908947587886</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.03871538477167569</v>
+        <v>-0.03871538477167391</v>
       </c>
       <c r="P26" t="n">
         <v>0.9171639151115967</v>
       </c>
       <c r="Q26" t="n">
-        <v>-0.1084621539643056</v>
+        <v>-0.108462153964306</v>
       </c>
       <c r="R26" t="n">
-        <v>2.338826560761904</v>
+        <v>2.338826560761903</v>
       </c>
       <c r="S26" t="n">
-        <v>1.523107525525456</v>
+        <v>1.523107525525457</v>
       </c>
       <c r="T26" t="n">
-        <v>0.5362825878942803</v>
+        <v>0.536282587894281</v>
       </c>
       <c r="U26" t="n">
         <v>2.755857486806486</v>
@@ -2630,16 +2630,16 @@
         <v>1.111633745569277</v>
       </c>
       <c r="W26" t="n">
-        <v>0.3645192039647459</v>
+        <v>0.364519203964746</v>
       </c>
       <c r="X26" t="n">
         <v>2.080960659285379</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.2809054691351674</v>
+        <v>0.2809054691351673</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.01108898115609946</v>
+        <v>0.01176816170104338</v>
       </c>
       <c r="AA26" t="n">
         <v>0.7831829714167562</v>
@@ -2659,13 +2659,13 @@
         <v>12.26036023626614</v>
       </c>
       <c r="E27" t="n">
-        <v>6.856522538625415</v>
+        <v>6.856522538625414</v>
       </c>
       <c r="F27" t="n">
         <v>18.12451096033846</v>
       </c>
       <c r="G27" t="n">
-        <v>24.61284820914051</v>
+        <v>24.6128482091405</v>
       </c>
       <c r="H27" t="n">
         <v>14.94234022551248</v>
@@ -2677,7 +2677,7 @@
         <v>21.66857088044319</v>
       </c>
       <c r="K27" t="n">
-        <v>13.78780483106737</v>
+        <v>13.78780483106738</v>
       </c>
       <c r="L27" t="n">
         <v>29.60734715714559</v>
@@ -2698,13 +2698,13 @@
         <v>2.235598552464537</v>
       </c>
       <c r="R27" t="n">
-        <v>7.720769903520114</v>
+        <v>7.720769903520115</v>
       </c>
       <c r="S27" t="n">
-        <v>2.02685287828073</v>
+        <v>2.026852878280731</v>
       </c>
       <c r="T27" t="n">
-        <v>0.5076513879754887</v>
+        <v>0.5076513879754891</v>
       </c>
       <c r="U27" t="n">
         <v>4.304957499256172</v>
@@ -2713,7 +2713,7 @@
         <v>0.7170193511856325</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02663279807094765</v>
+        <v>0.02663279807094787</v>
       </c>
       <c r="X27" t="n">
         <v>2.029700035837971</v>
@@ -2722,7 +2722,7 @@
         <v>0.1077760754112181</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.04434574170603219</v>
+        <v>-0.02148859884888941</v>
       </c>
       <c r="AA27" t="n">
         <v>0.5233800519041913</v>
@@ -2742,10 +2742,10 @@
         <v>0.3818862147325328</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1443102039788171</v>
+        <v>0.1443102039788173</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6671528210824991</v>
+        <v>0.6671528210825004</v>
       </c>
       <c r="G28" t="n">
         <v>4.965208470744669</v>
@@ -2787,7 +2787,7 @@
         <v>4.225786289112354</v>
       </c>
       <c r="T28" t="n">
-        <v>2.18231196805646</v>
+        <v>2.182311968056459</v>
       </c>
       <c r="U28" t="n">
         <v>6.723648544036569</v>
@@ -2796,7 +2796,7 @@
         <v>1.956096502311589</v>
       </c>
       <c r="W28" t="n">
-        <v>0.7220887249825096</v>
+        <v>0.7220887249825095</v>
       </c>
       <c r="X28" t="n">
         <v>3.558871693173391</v>
@@ -2805,7 +2805,7 @@
         <v>0.3928114827318588</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.006101217781842008</v>
+        <v>0.02895836063898488</v>
       </c>
       <c r="AA28" t="n">
         <v>1.025809105154173</v>
@@ -2822,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.738365215808142</v>
+        <v>5.738365215808141</v>
       </c>
       <c r="E29" t="n">
         <v>2.98488238847135</v>
       </c>
       <c r="F29" t="n">
-        <v>8.906373344924683</v>
+        <v>8.906373344924685</v>
       </c>
       <c r="G29" t="n">
         <v>8.320693572464311</v>
@@ -2843,13 +2843,13 @@
         <v>1.205005109758817</v>
       </c>
       <c r="K29" t="n">
-        <v>0.3703128654623367</v>
+        <v>0.3703128654623349</v>
       </c>
       <c r="L29" t="n">
-        <v>2.450232739525267</v>
+        <v>2.450232739525271</v>
       </c>
       <c r="M29" t="n">
-        <v>-8.267550787152699</v>
+        <v>-8.267550787152695</v>
       </c>
       <c r="N29" t="n">
         <v>-5.896072650647558</v>
@@ -2858,19 +2858,19 @@
         <v>-9.973989006431276</v>
       </c>
       <c r="P29" t="n">
-        <v>-3.530147904880979</v>
+        <v>-3.53014790488098</v>
       </c>
       <c r="Q29" t="n">
         <v>-3.254733165549506</v>
       </c>
       <c r="R29" t="n">
-        <v>-3.268320738958716</v>
+        <v>-3.268320738958717</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.5341498591880613</v>
+        <v>-0.5341498591880596</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.7848787518074587</v>
+        <v>-0.7848787518074578</v>
       </c>
       <c r="U29" t="n">
         <v>-0.01890922559671626</v>
@@ -2879,7 +2879,7 @@
         <v>0.353735326883114</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.01314247748888353</v>
+        <v>-0.01314247748888331</v>
       </c>
       <c r="X29" t="n">
         <v>0.9107743233128147</v>
@@ -2888,7 +2888,7 @@
         <v>0.1643734263801409</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.03742785666587798</v>
+        <v>-0.0145707138087352</v>
       </c>
       <c r="AA29" t="n">
         <v>0.5292220439137483</v>
@@ -2911,10 +2911,10 @@
         <v>2.473382354786413</v>
       </c>
       <c r="F30" t="n">
-        <v>6.908997658588315</v>
+        <v>6.908997658588316</v>
       </c>
       <c r="G30" t="n">
-        <v>8.601395107400949</v>
+        <v>8.60139510740095</v>
       </c>
       <c r="H30" t="n">
         <v>5.000428240887761</v>
@@ -2938,7 +2938,7 @@
         <v>2.398877513487443</v>
       </c>
       <c r="O30" t="n">
-        <v>7.117780512504332</v>
+        <v>7.117780512504331</v>
       </c>
       <c r="P30" t="n">
         <v>3.228919552585715</v>
@@ -2950,10 +2950,10 @@
         <v>5.441802576067393</v>
       </c>
       <c r="S30" t="n">
-        <v>2.244035882251826</v>
+        <v>2.244035882251827</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9000236278975722</v>
+        <v>0.9000236278975725</v>
       </c>
       <c r="U30" t="n">
         <v>3.985952211123069</v>
@@ -2971,7 +2971,7 @@
         <v>0.2661778777481448</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.01396203698761764</v>
+        <v>0.008895105869525192</v>
       </c>
       <c r="AA30" t="n">
         <v>0.7803056241936681</v>
@@ -2994,13 +2994,13 @@
         <v>2.127873138419826</v>
       </c>
       <c r="F31" t="n">
-        <v>5.287455599830567</v>
+        <v>5.287455599830564</v>
       </c>
       <c r="G31" t="n">
         <v>8.709893573264193</v>
       </c>
       <c r="H31" t="n">
-        <v>5.282020928382818</v>
+        <v>5.282020928382819</v>
       </c>
       <c r="I31" t="n">
         <v>12.16413083729545</v>
@@ -3039,13 +3039,13 @@
         <v>2.592700607511173</v>
       </c>
       <c r="U31" t="n">
-        <v>7.998227723740793</v>
+        <v>7.998227723740794</v>
       </c>
       <c r="V31" t="n">
         <v>2.075830702976035</v>
       </c>
       <c r="W31" t="n">
-        <v>0.7625503749435925</v>
+        <v>0.7625503749435926</v>
       </c>
       <c r="X31" t="n">
         <v>3.889635489490439</v>
@@ -3054,7 +3054,7 @@
         <v>0.3659620166704112</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.01075890683870647</v>
+        <v>0.03361604969584936</v>
       </c>
       <c r="AA31" t="n">
         <v>1.033080693782088</v>
@@ -3077,7 +3077,7 @@
         <v>0.7537668230232948</v>
       </c>
       <c r="F32" t="n">
-        <v>1.724315958555543</v>
+        <v>1.724315958555541</v>
       </c>
       <c r="G32" t="n">
         <v>8.559834574127873</v>
@@ -3119,7 +3119,7 @@
         <v>6.166901474055024</v>
       </c>
       <c r="T32" t="n">
-        <v>3.303399887842872</v>
+        <v>3.303399887842871</v>
       </c>
       <c r="U32" t="n">
         <v>9.654210862557354</v>
@@ -3128,7 +3128,7 @@
         <v>2.464359228611956</v>
       </c>
       <c r="W32" t="n">
-        <v>0.9243386081443686</v>
+        <v>0.9243386081443685</v>
       </c>
       <c r="X32" t="n">
         <v>4.543281977991365</v>
@@ -3137,7 +3137,7 @@
         <v>0.4311527805412907</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.01662067885838137</v>
+        <v>0.03947782171552427</v>
       </c>
       <c r="AA32" t="n">
         <v>1.150461501858192</v>
@@ -3160,7 +3160,7 @@
         <v>2.584866521875842</v>
       </c>
       <c r="F33" t="n">
-        <v>6.838659913325501</v>
+        <v>6.838659913325499</v>
       </c>
       <c r="G33" t="n">
         <v>12.71263041800435</v>
@@ -3202,7 +3202,7 @@
         <v>4.139846880482702</v>
       </c>
       <c r="T33" t="n">
-        <v>1.997787747958274</v>
+        <v>1.997787747958273</v>
       </c>
       <c r="U33" t="n">
         <v>6.894272301950032</v>
@@ -3220,7 +3220,7 @@
         <v>0.3105801128947892</v>
       </c>
       <c r="Z33" t="n">
-        <v>-0.007207948355269602</v>
+        <v>0.01564919450187325</v>
       </c>
       <c r="AA33" t="n">
         <v>0.8998835529721856</v>
@@ -3282,10 +3282,10 @@
         <v>2.989101127216109</v>
       </c>
       <c r="S34" t="n">
-        <v>0.9228082498352772</v>
+        <v>0.9228082498352781</v>
       </c>
       <c r="T34" t="n">
-        <v>-0.04962207189230461</v>
+        <v>-0.04962207189230394</v>
       </c>
       <c r="U34" t="n">
         <v>2.448694298934389</v>
@@ -3294,16 +3294,16 @@
         <v>0.5600338656037105</v>
       </c>
       <c r="W34" t="n">
-        <v>0.007227012036333691</v>
+        <v>0.007227012036333913</v>
       </c>
       <c r="X34" t="n">
         <v>1.549262817545309</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.1328979311603583</v>
+        <v>0.1328979311603582</v>
       </c>
       <c r="Z34" t="n">
-        <v>-0.04191884418085058</v>
+        <v>-0.0190617013237078</v>
       </c>
       <c r="AA34" t="n">
         <v>0.5251588387760726</v>
@@ -3326,7 +3326,7 @@
         <v>1.398605478906734</v>
       </c>
       <c r="F35" t="n">
-        <v>4.410929455424972</v>
+        <v>4.410929455424974</v>
       </c>
       <c r="G35" t="n">
         <v>6.815154090677886</v>
@@ -3359,13 +3359,13 @@
         <v>1.927964076038386</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.5639468506514387</v>
+        <v>0.5639468506514391</v>
       </c>
       <c r="R35" t="n">
         <v>3.71017014394118</v>
       </c>
       <c r="S35" t="n">
-        <v>1.830716819391548</v>
+        <v>1.830716819391549</v>
       </c>
       <c r="T35" t="n">
         <v>0.6909420082159303</v>
@@ -3377,7 +3377,7 @@
         <v>1.151900472542052</v>
       </c>
       <c r="W35" t="n">
-        <v>0.3489682318925449</v>
+        <v>0.348968231892545</v>
       </c>
       <c r="X35" t="n">
         <v>2.232728544752049</v>
@@ -3386,7 +3386,7 @@
         <v>0.2806127670017373</v>
       </c>
       <c r="Z35" t="n">
-        <v>-0.01691844359008176</v>
+        <v>0.005938699267061066</v>
       </c>
       <c r="AA35" t="n">
         <v>0.7758240852254601</v>
@@ -3409,7 +3409,7 @@
         <v>-0.8106556314322477</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.011552375148294</v>
+        <v>-2.011552375148293</v>
       </c>
       <c r="G36" t="n">
         <v>1.479080833224705</v>
@@ -3448,10 +3448,10 @@
         <v>12.83229780289367</v>
       </c>
       <c r="S36" t="n">
-        <v>5.07795824118017</v>
+        <v>5.077958241180169</v>
       </c>
       <c r="T36" t="n">
-        <v>2.753901027883649</v>
+        <v>2.753901027883648</v>
       </c>
       <c r="U36" t="n">
         <v>7.80536173813351</v>
@@ -3460,7 +3460,7 @@
         <v>2.310389185085333</v>
       </c>
       <c r="W36" t="n">
-        <v>0.9104377139640227</v>
+        <v>0.9104377139640225</v>
       </c>
       <c r="X36" t="n">
         <v>4.064939223189757</v>
@@ -3469,7 +3469,7 @@
         <v>0.4542543238446933</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.02030270053162676</v>
+        <v>0.04315984338876966</v>
       </c>
       <c r="AA36" t="n">
         <v>1.153931778038574</v>
@@ -3492,10 +3492,10 @@
         <v>2.274739342348217</v>
       </c>
       <c r="F37" t="n">
-        <v>6.846568213964137</v>
+        <v>6.84656821396414</v>
       </c>
       <c r="G37" t="n">
-        <v>7.481822297034398</v>
+        <v>7.481822297034399</v>
       </c>
       <c r="H37" t="n">
         <v>4.168841089486893</v>
@@ -3507,13 +3507,13 @@
         <v>3.216073575899596</v>
       </c>
       <c r="K37" t="n">
-        <v>1.639532829394973</v>
+        <v>1.639532829394971</v>
       </c>
       <c r="L37" t="n">
         <v>5.21075940371002</v>
       </c>
       <c r="M37" t="n">
-        <v>-3.262377300797031</v>
+        <v>-3.262377300797029</v>
       </c>
       <c r="N37" t="n">
         <v>-2.67479371523626</v>
@@ -3528,13 +3528,13 @@
         <v>-1.330884478084148</v>
       </c>
       <c r="R37" t="n">
-        <v>0.2466596202731566</v>
+        <v>0.2466596202731548</v>
       </c>
       <c r="S37" t="n">
-        <v>0.6558341778870429</v>
+        <v>0.6558341778870433</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.04308107184147869</v>
+        <v>-0.04308107184147847</v>
       </c>
       <c r="U37" t="n">
         <v>1.666730216811605</v>
@@ -3543,16 +3543,16 @@
         <v>0.754325620740233</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1706653231289647</v>
+        <v>0.1706653231289648</v>
       </c>
       <c r="X37" t="n">
         <v>1.572798665777959</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.2214829404680704</v>
+        <v>0.2214829404680703</v>
       </c>
       <c r="Z37" t="n">
-        <v>-0.02654558805394799</v>
+        <v>-0.003688445196805178</v>
       </c>
       <c r="AA37" t="n">
         <v>0.6533688092238545</v>
@@ -3605,7 +3605,7 @@
         <v>14.89294203305372</v>
       </c>
       <c r="P38" t="n">
-        <v>5.185550976135815</v>
+        <v>5.185550976135814</v>
       </c>
       <c r="Q38" t="n">
         <v>2.669542437049548</v>
@@ -3617,16 +3617,16 @@
         <v>2.52611134977066</v>
       </c>
       <c r="T38" t="n">
-        <v>0.901257227755317</v>
+        <v>0.9012572277553176</v>
       </c>
       <c r="U38" t="n">
-        <v>4.775330369143792</v>
+        <v>4.775330369143793</v>
       </c>
       <c r="V38" t="n">
         <v>1.021998980820702</v>
       </c>
       <c r="W38" t="n">
-        <v>0.2140180835618575</v>
+        <v>0.2140180835618576</v>
       </c>
       <c r="X38" t="n">
         <v>2.377716289914504</v>
@@ -3635,7 +3635,7 @@
         <v>0.1755725559946952</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.02808016896645646</v>
+        <v>-0.005223026109313651</v>
       </c>
       <c r="AA38" t="n">
         <v>0.6537871430543869</v>
@@ -3673,7 +3673,7 @@
         <v>10.21293705325103</v>
       </c>
       <c r="K39" t="n">
-        <v>6.295784294109452</v>
+        <v>6.295784294109451</v>
       </c>
       <c r="L39" t="n">
         <v>14.45102802642607</v>
@@ -3685,10 +3685,10 @@
         <v>-0.4668927715895128</v>
       </c>
       <c r="O39" t="n">
-        <v>0.7270732223833232</v>
+        <v>0.7270732223833214</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.08323982835698285</v>
+        <v>-0.08323982835698374</v>
       </c>
       <c r="Q39" t="n">
         <v>-0.9473325644045572</v>
@@ -3697,28 +3697,28 @@
         <v>1.360408366217593</v>
       </c>
       <c r="S39" t="n">
-        <v>0.5396919781161951</v>
+        <v>0.539691978116196</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.2431544917568058</v>
+        <v>-0.2431544917568054</v>
       </c>
       <c r="U39" t="n">
-        <v>1.822525822929187</v>
+        <v>1.822525822929188</v>
       </c>
       <c r="V39" t="n">
         <v>0.5046899283544368</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.004746475162805686</v>
+        <v>-0.004746475162805575</v>
       </c>
       <c r="X39" t="n">
         <v>1.387022614623367</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.1432921955224758</v>
+        <v>0.1432921955224757</v>
       </c>
       <c r="Z39" t="n">
-        <v>-0.04236500248718715</v>
+        <v>-0.01950785963004437</v>
       </c>
       <c r="AA39" t="n">
         <v>0.5240602784248658</v>
@@ -3741,7 +3741,7 @@
         <v>-1.088130615840026</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.317048257464099</v>
+        <v>-2.317048257464095</v>
       </c>
       <c r="G40" t="n">
         <v>-2.459951408305295</v>
@@ -3756,13 +3756,13 @@
         <v>0.08999918606677859</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.5897172623373876</v>
+        <v>-0.5897172623373894</v>
       </c>
       <c r="L40" t="n">
         <v>1.261160131595771</v>
       </c>
       <c r="M40" t="n">
-        <v>3.598966823658834</v>
+        <v>3.598966823658836</v>
       </c>
       <c r="N40" t="n">
         <v>1.575862837049486</v>
@@ -3771,13 +3771,13 @@
         <v>6.08253896855404</v>
       </c>
       <c r="P40" t="n">
-        <v>4.063520258556843</v>
+        <v>4.063520258556844</v>
       </c>
       <c r="Q40" t="n">
         <v>2.162278341896749</v>
       </c>
       <c r="R40" t="n">
-        <v>6.214341428356311</v>
+        <v>6.21434142835631</v>
       </c>
       <c r="S40" t="n">
         <v>3.167045847378695</v>
@@ -3801,7 +3801,7 @@
         <v>0.4118724011437864</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.01229348775121494</v>
+        <v>0.03515063060835782</v>
       </c>
       <c r="AA40" t="n">
         <v>1.032662359951556</v>
@@ -3818,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>-2.625833379679101</v>
+        <v>-2.6258333796791</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.433639832206614</v>
+        <v>-1.433639832206613</v>
       </c>
       <c r="F41" t="n">
         <v>-3.938590316221847</v>
@@ -3863,7 +3863,7 @@
         <v>14.97593457894627</v>
       </c>
       <c r="S41" t="n">
-        <v>5.960332984389181</v>
+        <v>5.96033298438918</v>
       </c>
       <c r="T41" t="n">
         <v>3.341039287527978</v>
@@ -3881,10 +3881,10 @@
         <v>4.575195680188232</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.5116565400660528</v>
+        <v>0.5116565400660529</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.03701443157753906</v>
+        <v>0.059871574434682</v>
       </c>
       <c r="AA41" t="n">
         <v>1.285437429539976</v>
@@ -3907,7 +3907,7 @@
         <v>3.295009567998975</v>
       </c>
       <c r="F42" t="n">
-        <v>8.898465044286047</v>
+        <v>8.898465044286045</v>
       </c>
       <c r="G42" t="n">
         <v>13.55150169343426</v>
@@ -3967,7 +3967,7 @@
         <v>0.2534705988068597</v>
       </c>
       <c r="Z42" t="n">
-        <v>-0.0180902169671996</v>
+        <v>0.004766925889943225</v>
       </c>
       <c r="AA42" t="n">
         <v>0.7757367876620794</v>
@@ -3984,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>4.835510169777129</v>
+        <v>4.83551016977713</v>
       </c>
       <c r="E43" t="n">
-        <v>2.639373172104762</v>
+        <v>2.639373172104763</v>
       </c>
       <c r="F43" t="n">
         <v>7.284831286166934</v>
@@ -4017,7 +4017,7 @@
         <v>2.41487713859734</v>
       </c>
       <c r="O43" t="n">
-        <v>7.185143746703156</v>
+        <v>7.185143746703155</v>
       </c>
       <c r="P43" t="n">
         <v>3.270370311960078</v>
@@ -4032,7 +4032,7 @@
         <v>2.259137277822425</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9077982278061425</v>
+        <v>0.9077982278061429</v>
       </c>
       <c r="U43" t="n">
         <v>3.993366287021009</v>
@@ -4041,7 +4041,7 @@
         <v>1.216290735957225</v>
       </c>
       <c r="W43" t="n">
-        <v>0.3774563946544885</v>
+        <v>0.3774563946544886</v>
       </c>
       <c r="X43" t="n">
         <v>2.401252138147154</v>
@@ -4050,7 +4050,7 @@
         <v>0.2641575653024073</v>
       </c>
       <c r="Z43" t="n">
-        <v>-0.01270691283955387</v>
+        <v>0.01015023001758897</v>
       </c>
       <c r="AA43" t="n">
         <v>0.7819971135021686</v>
@@ -4073,7 +4073,7 @@
         <v>-1.354807860237031</v>
       </c>
       <c r="F44" t="n">
-        <v>-3.69552387853022</v>
+        <v>-3.695523878530219</v>
       </c>
       <c r="G44" t="n">
         <v>0.4680064887213975</v>
@@ -4115,7 +4115,7 @@
         <v>6.283043673825871</v>
       </c>
       <c r="T44" t="n">
-        <v>3.503473307758199</v>
+        <v>3.503473307758198</v>
       </c>
       <c r="U44" t="n">
         <v>9.498415256439772</v>
@@ -4133,7 +4133,7 @@
         <v>0.5093435254868852</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.03244009329162054</v>
+        <v>0.05529723614876346</v>
       </c>
       <c r="AA44" t="n">
         <v>1.279770032657181</v>
@@ -4177,13 +4177,13 @@
         <v>21.4532276473666</v>
       </c>
       <c r="M45" t="n">
-        <v>5.498237558742019</v>
+        <v>5.498237558742018</v>
       </c>
       <c r="N45" t="n">
         <v>3.2218921899254</v>
       </c>
       <c r="O45" t="n">
-        <v>8.153022056454622</v>
+        <v>8.153022056454624</v>
       </c>
       <c r="P45" t="n">
         <v>2.394318846614587</v>
@@ -4198,16 +4198,16 @@
         <v>1.321025917124958</v>
       </c>
       <c r="T45" t="n">
-        <v>0.1516849478807669</v>
+        <v>0.151684947880768</v>
       </c>
       <c r="U45" t="n">
-        <v>3.08227685083753</v>
+        <v>3.082276850837531</v>
       </c>
       <c r="V45" t="n">
         <v>0.6183932449082841</v>
       </c>
       <c r="W45" t="n">
-        <v>0.02470539108974112</v>
+        <v>0.02470539108974135</v>
       </c>
       <c r="X45" t="n">
         <v>1.713597483958306</v>
@@ -4216,7 +4216,7 @@
         <v>0.1204833543525032</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.04021756172645023</v>
+        <v>-0.01736041886930745</v>
       </c>
       <c r="AA45" t="n">
         <v>0.52794888843578</v>
@@ -4239,10 +4239,10 @@
         <v>1.006916485690412</v>
       </c>
       <c r="F46" t="n">
-        <v>2.232916776021154</v>
+        <v>2.232916776021153</v>
       </c>
       <c r="G46" t="n">
-        <v>5.395969004817627</v>
+        <v>5.395969004817626</v>
       </c>
       <c r="H46" t="n">
         <v>3.271525797031325</v>
@@ -4254,7 +4254,7 @@
         <v>13.25400578987384</v>
       </c>
       <c r="K46" t="n">
-        <v>7.948646128786863</v>
+        <v>7.948646128786864</v>
       </c>
       <c r="L46" t="n">
         <v>18.71723797096465</v>
@@ -4278,10 +4278,10 @@
         <v>16.1926229960184</v>
       </c>
       <c r="S46" t="n">
-        <v>5.87439357575953</v>
+        <v>5.874393575759529</v>
       </c>
       <c r="T46" t="n">
-        <v>3.156515067429792</v>
+        <v>3.156515067429791</v>
       </c>
       <c r="U46" t="n">
         <v>9.072526841939794</v>
@@ -4299,7 +4299,7 @@
         <v>0.4294251702289832</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.02370526544042745</v>
+        <v>0.04656240829757036</v>
       </c>
       <c r="AA46" t="n">
         <v>1.159511877357989</v>
@@ -4343,7 +4343,7 @@
         <v>29.27403968438545</v>
       </c>
       <c r="M47" t="n">
-        <v>20.57225616943441</v>
+        <v>20.5722561694344</v>
       </c>
       <c r="N47" t="n">
         <v>12.91772824637909</v>
@@ -4382,7 +4382,7 @@
         <v>0.2877712717248166</v>
       </c>
       <c r="Z47" t="n">
-        <v>-0.005060507594532686</v>
+        <v>0.01779663526261017</v>
       </c>
       <c r="AA47" t="n">
         <v>0.9037721629830998</v>
@@ -4405,7 +4405,7 @@
         <v>3.428348190197478</v>
       </c>
       <c r="F48" t="n">
-        <v>9.587702854819106</v>
+        <v>9.587702854819108</v>
       </c>
       <c r="G48" t="n">
         <v>12.08752274492091</v>
@@ -4420,7 +4420,7 @@
         <v>9.019564411877148</v>
       </c>
       <c r="K48" t="n">
-        <v>5.441262375315511</v>
+        <v>5.44126237531551</v>
       </c>
       <c r="L48" t="n">
         <v>12.90411095795363</v>
@@ -4447,7 +4447,7 @@
         <v>1.391863930184011</v>
       </c>
       <c r="T48" t="n">
-        <v>0.3284345680703833</v>
+        <v>0.3284345680703837</v>
       </c>
       <c r="U48" t="n">
         <v>2.904239017026128</v>
@@ -4456,7 +4456,7 @@
         <v>0.8589826111281811</v>
       </c>
       <c r="W48" t="n">
-        <v>0.1836025138187073</v>
+        <v>0.1836025138187074</v>
       </c>
       <c r="X48" t="n">
         <v>1.893090144639733</v>
@@ -4465,7 +4465,7 @@
         <v>0.2047350366353103</v>
       </c>
       <c r="Z48" t="n">
-        <v>-0.02816351973740239</v>
+        <v>-0.005306376880259589</v>
       </c>
       <c r="AA48" t="n">
         <v>0.652182951309267</v>
@@ -4482,13 +4482,13 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.569041803828805</v>
+        <v>-4.569041803828804</v>
       </c>
       <c r="E49" t="n">
         <v>-2.707059720524488</v>
       </c>
       <c r="F49" t="n">
-        <v>-6.49908796400937</v>
+        <v>-6.499087964009365</v>
       </c>
       <c r="G49" t="n">
         <v>-5.257266769531665</v>
@@ -4503,13 +4503,13 @@
         <v>-0.4979820762553349</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.998484961598713</v>
+        <v>-0.9984849615987148</v>
       </c>
       <c r="L49" t="n">
-        <v>0.6357789741941069</v>
+        <v>0.6357789741941051</v>
       </c>
       <c r="M49" t="n">
-        <v>5.798334304372712</v>
+        <v>5.798334304372713</v>
       </c>
       <c r="N49" t="n">
         <v>2.944749479148382</v>
@@ -4524,7 +4524,7 @@
         <v>3.239613872367734</v>
       </c>
       <c r="R49" t="n">
-        <v>8.049159191025819</v>
+        <v>8.049159191025817</v>
       </c>
       <c r="S49" t="n">
         <v>3.958812217164119</v>
@@ -4548,7 +4548,7 @@
         <v>0.4813964920395709</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.0214744739087446</v>
+        <v>0.0443316167658875</v>
       </c>
       <c r="AA49" t="n">
         <v>1.154019075601955</v>
@@ -4571,10 +4571,10 @@
         <v>1.942757707711518</v>
       </c>
       <c r="F50" t="n">
-        <v>6.094900958806898</v>
+        <v>6.094900958806901</v>
       </c>
       <c r="G50" t="n">
-        <v>7.826228435181194</v>
+        <v>7.826228435181195</v>
       </c>
       <c r="H50" t="n">
         <v>4.3266791937649</v>
@@ -4586,7 +4586,7 @@
         <v>3.51876926542548</v>
       </c>
       <c r="K50" t="n">
-        <v>1.862409939161281</v>
+        <v>1.862409939161279</v>
       </c>
       <c r="L50" t="n">
         <v>5.671527359245408</v>
@@ -4595,28 +4595,28 @@
         <v>-3.320875452422415</v>
       </c>
       <c r="N50" t="n">
-        <v>-2.70679296545605</v>
+        <v>-2.706792965456052</v>
       </c>
       <c r="O50" t="n">
-        <v>-3.436158732428654</v>
+        <v>-3.43615873242865</v>
       </c>
       <c r="P50" t="n">
         <v>-0.863268053482841</v>
       </c>
       <c r="Q50" t="n">
-        <v>-1.38891919554369</v>
+        <v>-1.388919195543691</v>
       </c>
       <c r="R50" t="n">
-        <v>0.1437199491454599</v>
+        <v>0.1437199491454582</v>
       </c>
       <c r="S50" t="n">
-        <v>0.6256313867458467</v>
+        <v>0.6256313867458476</v>
       </c>
       <c r="T50" t="n">
-        <v>-0.05863027165861934</v>
+        <v>-0.05863027165861912</v>
       </c>
       <c r="U50" t="n">
-        <v>1.651902065015724</v>
+        <v>1.651902065015725</v>
       </c>
       <c r="V50" t="n">
         <v>0.7482947366296335</v>
@@ -4628,10 +4628,10 @@
         <v>1.56860973879585</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.2255235653595454</v>
+        <v>0.2255235653595453</v>
       </c>
       <c r="Z50" t="n">
-        <v>-0.02905583635007554</v>
+        <v>-0.006198693492932734</v>
       </c>
       <c r="AA50" t="n">
         <v>0.6499858306068533</v>
@@ -4654,10 +4654,10 @@
         <v>-4.072839162541834</v>
       </c>
       <c r="F51" t="n">
-        <v>-10.17252685308903</v>
+        <v>-10.17252685308902</v>
       </c>
       <c r="G51" t="n">
-        <v>-11.21844770006829</v>
+        <v>-11.21844770006828</v>
       </c>
       <c r="H51" t="n">
         <v>-7.265216182577251</v>
@@ -4675,46 +4675,46 @@
         <v>-4.988197849167838</v>
       </c>
       <c r="M51" t="n">
-        <v>5.396639310133647</v>
+        <v>5.396639310133649</v>
       </c>
       <c r="N51" t="n">
-        <v>2.573241203704142</v>
+        <v>2.573241203704143</v>
       </c>
       <c r="O51" t="n">
         <v>8.659226990341164</v>
       </c>
       <c r="P51" t="n">
-        <v>6.074724162952212</v>
+        <v>6.074724162952213</v>
       </c>
       <c r="Q51" t="n">
         <v>3.673557756952746</v>
       </c>
       <c r="R51" t="n">
-        <v>8.564103206079899</v>
+        <v>8.564103206079897</v>
       </c>
       <c r="S51" t="n">
         <v>4.458070688654049</v>
       </c>
       <c r="T51" t="n">
-        <v>2.582458807887114</v>
+        <v>2.582458807887113</v>
       </c>
       <c r="U51" t="n">
-        <v>6.412057331801407</v>
+        <v>6.412057331801406</v>
       </c>
       <c r="V51" t="n">
         <v>2.455367887083181</v>
       </c>
       <c r="W51" t="n">
-        <v>1.072912321566051</v>
+        <v>1.07291232156605</v>
       </c>
       <c r="X51" t="n">
         <v>3.930423795482574</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.5491929726230479</v>
+        <v>0.549192972623048</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.03774004664832033</v>
+        <v>0.06059718950546326</v>
       </c>
       <c r="AA51" t="n">
         <v>1.28442616675215</v>
@@ -4767,10 +4767,10 @@
         <v>30.26344115056683</v>
       </c>
       <c r="P52" t="n">
-        <v>13.09289259412329</v>
+        <v>13.0928925941233</v>
       </c>
       <c r="Q52" t="n">
-        <v>8.375411035431956</v>
+        <v>8.375411035431958</v>
       </c>
       <c r="R52" t="n">
         <v>17.97597092312406</v>
@@ -4797,7 +4797,7 @@
         <v>0.5009695735705052</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.03163112744989333</v>
+        <v>0.05448827030703626</v>
       </c>
       <c r="AA52" t="n">
         <v>1.279177103699887</v>
@@ -4832,7 +4832,7 @@
         <v>21.50040768117424</v>
       </c>
       <c r="J53" t="n">
-        <v>9.758893518962203</v>
+        <v>9.758893518962205</v>
       </c>
       <c r="K53" t="n">
         <v>5.96146862945999</v>
@@ -4847,10 +4847,10 @@
         <v>-0.4188938962598252</v>
       </c>
       <c r="O53" t="n">
-        <v>0.9291629249797939</v>
+        <v>0.9291629249797921</v>
       </c>
       <c r="P53" t="n">
-        <v>0.04111244976610617</v>
+        <v>0.04111244976610529</v>
       </c>
       <c r="Q53" t="n">
         <v>-0.8602804882152428</v>
@@ -4859,10 +4859,10 @@
         <v>1.514817872909138</v>
       </c>
       <c r="S53" t="n">
-        <v>0.5849961648279893</v>
+        <v>0.5849961648279898</v>
       </c>
       <c r="T53" t="n">
-        <v>-0.2198306920310953</v>
+        <v>-0.219830692031094</v>
       </c>
       <c r="U53" t="n">
         <v>1.844768050623008</v>
@@ -4871,16 +4871,16 @@
         <v>0.5137362545203361</v>
       </c>
       <c r="W53" t="n">
-        <v>0.01176820039999849</v>
+        <v>0.01176820039999871</v>
       </c>
       <c r="X53" t="n">
         <v>1.393306005096531</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1372312581852633</v>
+        <v>0.1372312581852632</v>
       </c>
       <c r="Z53" t="n">
-        <v>-0.03859963004299583</v>
+        <v>-0.01574248718585303</v>
       </c>
       <c r="AA53" t="n">
         <v>0.5291347463503675</v>
@@ -4900,16 +4900,16 @@
         <v>1.12000121382663</v>
       </c>
       <c r="E54" t="n">
-        <v>0.4109874483758227</v>
+        <v>0.4109874483758222</v>
       </c>
       <c r="F54" t="n">
-        <v>2.04562844214862</v>
+        <v>2.045628442148624</v>
       </c>
       <c r="G54" t="n">
         <v>2.037250573717976</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7767643428287214</v>
+        <v>0.7767643428287219</v>
       </c>
       <c r="I54" t="n">
         <v>3.714002509644538</v>
@@ -4918,34 +4918,34 @@
         <v>-0.5763487939371768</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.8929767525929293</v>
+        <v>-0.8929767525929311</v>
       </c>
       <c r="L54" t="n">
-        <v>0.2779345136511591</v>
+        <v>0.2779345136511608</v>
       </c>
       <c r="M54" t="n">
-        <v>-3.751819522474173</v>
+        <v>-3.751819522474172</v>
       </c>
       <c r="N54" t="n">
-        <v>-3.094300866010188</v>
+        <v>-3.094300866010186</v>
       </c>
       <c r="O54" t="n">
         <v>-3.852734653105559</v>
       </c>
       <c r="P54" t="n">
-        <v>-0.3837915614357321</v>
+        <v>-0.383791561435733</v>
       </c>
       <c r="Q54" t="n">
-        <v>-0.9839926696884502</v>
+        <v>-0.9839926696884511</v>
       </c>
       <c r="R54" t="n">
-        <v>0.6071941286356921</v>
+        <v>0.6071941286356903</v>
       </c>
       <c r="S54" t="n">
-        <v>1.109788462665178</v>
+        <v>1.109788462665179</v>
       </c>
       <c r="T54" t="n">
-        <v>0.3272009682126384</v>
+        <v>0.3272009682126389</v>
       </c>
       <c r="U54" t="n">
         <v>2.114860859005404</v>
@@ -4957,13 +4957,13 @@
         <v>0.3415359330570704</v>
       </c>
       <c r="X54" t="n">
-        <v>1.914531529381328</v>
+        <v>1.914531529381329</v>
       </c>
       <c r="Y54" t="n">
         <v>0.2953403583887599</v>
       </c>
       <c r="Z54" t="n">
-        <v>-0.01404538775856358</v>
+        <v>0.008811755098579252</v>
       </c>
       <c r="AA54" t="n">
         <v>0.7787014324485482</v>
@@ -4983,13 +4983,13 @@
         <v>2.090063464548483</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9877918723004531</v>
+        <v>0.9877918723004528</v>
       </c>
       <c r="F55" t="n">
-        <v>3.416195762576105</v>
+        <v>3.416195762576109</v>
       </c>
       <c r="G55" t="n">
-        <v>4.340100797661232</v>
+        <v>4.340100797661233</v>
       </c>
       <c r="H55" t="n">
         <v>2.237265010274404</v>
@@ -4998,10 +4998,10 @@
         <v>6.790688939433417</v>
       </c>
       <c r="J55" t="n">
-        <v>2.325396624051599</v>
+        <v>2.325396624051598</v>
       </c>
       <c r="K55" t="n">
-        <v>1.007888020367339</v>
+        <v>1.007888020367338</v>
       </c>
       <c r="L55" t="n">
         <v>4.124610290772964</v>
@@ -5019,16 +5019,16 @@
         <v>0.7928116369885077</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.1955142301536199</v>
+        <v>-0.1955142301536203</v>
       </c>
       <c r="R55" t="n">
-        <v>2.18441705407036</v>
+        <v>2.184417054070359</v>
       </c>
       <c r="S55" t="n">
-        <v>1.477803338813662</v>
+        <v>1.477803338813663</v>
       </c>
       <c r="T55" t="n">
-        <v>0.5129587881685695</v>
+        <v>0.5129587881685698</v>
       </c>
       <c r="U55" t="n">
         <v>2.733615259112665</v>
@@ -5046,7 +5046,7 @@
         <v>0.2869664064723799</v>
       </c>
       <c r="Z55" t="n">
-        <v>-0.01485435360029078</v>
+        <v>0.008002789256852046</v>
       </c>
       <c r="AA55" t="n">
         <v>0.7781085034912545</v>
@@ -5069,7 +5069,7 @@
         <v>1.297919051828078</v>
       </c>
       <c r="F56" t="n">
-        <v>3.40828746193747</v>
+        <v>3.408287461937469</v>
       </c>
       <c r="G56" t="n">
         <v>9.570908918631181</v>
@@ -5111,7 +5111,7 @@
         <v>4.961816041409322</v>
       </c>
       <c r="T56" t="n">
-        <v>2.553827607968322</v>
+        <v>2.553827607968321</v>
       </c>
       <c r="U56" t="n">
         <v>7.961157344251092</v>
@@ -5120,7 +5120,7 @@
         <v>2.060753492699537</v>
       </c>
       <c r="W56" t="n">
-        <v>0.7350259156722523</v>
+        <v>0.7350259156722522</v>
       </c>
       <c r="X56" t="n">
         <v>3.879163172035166</v>
@@ -5129,7 +5129,7 @@
         <v>0.3760635788990987</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.0044832860983876</v>
+        <v>0.02734042895553047</v>
       </c>
       <c r="AA56" t="n">
         <v>1.024623247239586</v>
@@ -5152,10 +5152,10 @@
         <v>0.9197576403416441</v>
       </c>
       <c r="F57" t="n">
-        <v>2.100149586134162</v>
+        <v>2.10014958613416</v>
       </c>
       <c r="G57" t="n">
-        <v>8.387631505054475</v>
+        <v>8.387631505054474</v>
       </c>
       <c r="H57" t="n">
         <v>5.04770267303302</v>
@@ -5176,7 +5176,7 @@
         <v>22.31143050428383</v>
       </c>
       <c r="N57" t="n">
-        <v>13.88310736281396</v>
+        <v>13.88310736281395</v>
       </c>
       <c r="O57" t="n">
         <v>30.74738030544256</v>
@@ -5185,7 +5185,7 @@
         <v>12.65486686145055</v>
       </c>
       <c r="Q57" t="n">
-        <v>7.999501868306489</v>
+        <v>7.999501868306488</v>
       </c>
       <c r="R57" t="n">
         <v>17.56396657919768</v>
@@ -5194,7 +5194,7 @@
         <v>6.182002869625622</v>
       </c>
       <c r="T57" t="n">
-        <v>3.311174487751442</v>
+        <v>3.311174487751441</v>
       </c>
       <c r="U57" t="n">
         <v>9.661624938455294</v>
@@ -5203,7 +5203,7 @@
         <v>2.467374670667255</v>
       </c>
       <c r="W57" t="n">
-        <v>0.9298434999986367</v>
+        <v>0.9298434999986366</v>
       </c>
       <c r="X57" t="n">
         <v>4.54537644148242</v>
@@ -5212,7 +5212,7 @@
         <v>0.4291324680955532</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.01787580300644515</v>
+        <v>0.04073294586358804</v>
       </c>
       <c r="AA57" t="n">
         <v>1.152152991166693</v>
@@ -5235,10 +5235,10 @@
         <v>2.440730159666566</v>
       </c>
       <c r="F58" t="n">
-        <v>7.222401841542756</v>
+        <v>7.222401841542759</v>
       </c>
       <c r="G58" t="n">
-        <v>7.309619227961001</v>
+        <v>7.309619227961002</v>
       </c>
       <c r="H58" t="n">
         <v>4.089922037347891</v>
@@ -5250,13 +5250,13 @@
         <v>3.064725731136654</v>
       </c>
       <c r="K58" t="n">
-        <v>1.528094274511819</v>
+        <v>1.528094274511818</v>
       </c>
       <c r="L58" t="n">
         <v>4.980375425942324</v>
       </c>
       <c r="M58" t="n">
-        <v>-3.233128224984339</v>
+        <v>-3.233128224984338</v>
       </c>
       <c r="N58" t="n">
         <v>-2.658794090126364</v>
@@ -5265,19 +5265,19 @@
         <v>-3.234069029832179</v>
       </c>
       <c r="P58" t="n">
-        <v>-0.7389157753597519</v>
+        <v>-0.7389157753597528</v>
       </c>
       <c r="Q58" t="n">
-        <v>-1.301867119354376</v>
+        <v>-1.301867119354377</v>
       </c>
       <c r="R58" t="n">
-        <v>0.2981294558370049</v>
+        <v>0.2981294558370031</v>
       </c>
       <c r="S58" t="n">
-        <v>0.6709355734576405</v>
+        <v>0.6709355734576414</v>
       </c>
       <c r="T58" t="n">
-        <v>-0.03530647193290881</v>
+        <v>-0.03530647193290792</v>
       </c>
       <c r="U58" t="n">
         <v>1.674144292709546</v>
@@ -5286,16 +5286,16 @@
         <v>0.7573410627955327</v>
       </c>
       <c r="W58" t="n">
-        <v>0.1761702149832328</v>
+        <v>0.1761702149832329</v>
       </c>
       <c r="X58" t="n">
         <v>1.574893129269014</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.2194626280223329</v>
+        <v>0.2194626280223328</v>
       </c>
       <c r="Z58" t="n">
-        <v>-0.02529046390588421</v>
+        <v>-0.002433321048741402</v>
       </c>
       <c r="AA58" t="n">
         <v>0.655060298532355</v>
@@ -5318,13 +5318,13 @@
         <v>1.385077897176846</v>
       </c>
       <c r="F59" t="n">
-        <v>3.541054651824462</v>
+        <v>3.541054651824461</v>
       </c>
       <c r="G59" t="n">
         <v>6.579246418394334</v>
       </c>
       <c r="H59" t="n">
-        <v>3.900439313076139</v>
+        <v>3.90043931307614</v>
       </c>
       <c r="I59" t="n">
         <v>9.329718468993123</v>
@@ -5357,7 +5357,7 @@
         <v>12.57470296565883</v>
       </c>
       <c r="S59" t="n">
-        <v>4.65420674754323</v>
+        <v>4.654206747543229</v>
       </c>
       <c r="T59" t="n">
         <v>2.399168187646672</v>
@@ -5375,10 +5375,10 @@
         <v>3.727395286568497</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.3763562810325287</v>
+        <v>0.3763562810325288</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.0103127485323699</v>
+        <v>0.03316989138951278</v>
       </c>
       <c r="AA59" t="n">
         <v>1.031982133430882</v>
@@ -5401,10 +5401,10 @@
         <v>1.365953283786887</v>
       </c>
       <c r="F60" t="n">
-        <v>4.724333638379412</v>
+        <v>4.724333638379417</v>
       </c>
       <c r="G60" t="n">
-        <v>5.523378211237937</v>
+        <v>5.523378211237938</v>
       </c>
       <c r="H60" t="n">
         <v>2.866178526319217</v>
@@ -5416,16 +5416,16 @@
         <v>0.6170238474367036</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.03845483379898873</v>
+        <v>-0.03845483379899051</v>
       </c>
       <c r="L60" t="n">
-        <v>1.824851582123603</v>
+        <v>1.824851582123605</v>
       </c>
       <c r="M60" t="n">
         <v>-6.06818330643882</v>
       </c>
       <c r="N60" t="n">
-        <v>-4.527186008548665</v>
+        <v>-4.527186008548663</v>
       </c>
       <c r="O60" t="n">
         <v>-7.048088298166066</v>
@@ -5437,10 +5437,10 @@
         <v>-2.177397635078521</v>
       </c>
       <c r="R60" t="n">
-        <v>-1.433502976289208</v>
+        <v>-1.43350297628921</v>
       </c>
       <c r="S60" t="n">
-        <v>0.2576165105973627</v>
+        <v>0.2576165105973636</v>
       </c>
       <c r="T60" t="n">
         <v>-0.2443880916145502</v>
@@ -5458,10 +5458,10 @@
         <v>1.408463999364963</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.2338975172759254</v>
+        <v>0.2338975172759253</v>
       </c>
       <c r="Z60" t="n">
-        <v>-0.02824687050834833</v>
+        <v>-0.005389727651205527</v>
       </c>
       <c r="AA60" t="n">
         <v>0.6505787595641472</v>
@@ -5508,13 +5508,13 @@
         <v>12.73202760162426</v>
       </c>
       <c r="N61" t="n">
-        <v>7.828057392545491</v>
+        <v>7.82805739254549</v>
       </c>
       <c r="O61" t="n">
         <v>17.81884274131893</v>
       </c>
       <c r="P61" t="n">
-        <v>6.675827629109712</v>
+        <v>6.675827629109711</v>
       </c>
       <c r="Q61" t="n">
         <v>3.746877967520533</v>
@@ -5544,7 +5544,7 @@
         <v>0.2450966468904797</v>
       </c>
       <c r="Z61" t="n">
-        <v>-0.0188991828089268</v>
+        <v>0.003957960048216021</v>
       </c>
       <c r="AA61" t="n">
         <v>0.7751438587047856</v>
@@ -5597,7 +5597,7 @@
         <v>17.26754035224437</v>
       </c>
       <c r="P62" t="n">
-        <v>7.072402602408093</v>
+        <v>7.072402602408094</v>
       </c>
       <c r="Q62" t="n">
         <v>4.09376977591623</v>
@@ -5606,7 +5606,7 @@
         <v>10.43106618960624</v>
       </c>
       <c r="S62" t="n">
-        <v>3.771832004334218</v>
+        <v>3.771832004334219</v>
       </c>
       <c r="T62" t="n">
         <v>1.812029928002342</v>
@@ -5627,7 +5627,7 @@
         <v>0.3189540648111692</v>
       </c>
       <c r="Z62" t="n">
-        <v>-0.006398982513542398</v>
+        <v>0.01645816034360045</v>
       </c>
       <c r="AA62" t="n">
         <v>0.9004764819294794</v>
@@ -5650,7 +5650,7 @@
         <v>6.113727297382435</v>
       </c>
       <c r="F63" t="n">
-        <v>16.37811001233236</v>
+        <v>16.37811001233235</v>
       </c>
       <c r="G63" t="n">
         <v>22.48220105427064</v>
@@ -5674,43 +5674,43 @@
         <v>8.157798185320345</v>
       </c>
       <c r="N63" t="n">
-        <v>4.994286357688326</v>
+        <v>4.994286357688325</v>
       </c>
       <c r="O63" t="n">
         <v>11.56286191959557</v>
       </c>
       <c r="P63" t="n">
-        <v>3.446569766915739</v>
+        <v>3.446569766915738</v>
       </c>
       <c r="Q63" t="n">
         <v>1.418102754199934</v>
       </c>
       <c r="R63" t="n">
-        <v>6.092077142521598</v>
+        <v>6.092077142521599</v>
       </c>
       <c r="S63" t="n">
-        <v>1.643736606561648</v>
+        <v>1.643736606561649</v>
       </c>
       <c r="T63" t="n">
-        <v>0.3141189681109875</v>
+        <v>0.3141189681109877</v>
       </c>
       <c r="U63" t="n">
-        <v>3.67878902325097</v>
+        <v>3.678789023250971</v>
       </c>
       <c r="V63" t="n">
         <v>0.6616754139363588</v>
       </c>
       <c r="W63" t="n">
-        <v>0.01465931087180827</v>
+        <v>0.01465931087180838</v>
       </c>
       <c r="X63" t="n">
         <v>1.867459832916029</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.1181703397733357</v>
+        <v>0.1181703397733356</v>
       </c>
       <c r="Z63" t="n">
-        <v>-0.04479190001236876</v>
+        <v>-0.02193475715522598</v>
       </c>
       <c r="AA63" t="n">
         <v>0.5222814915529845</v>
@@ -5727,16 +5727,16 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>3.160742480222407</v>
+        <v>3.160742480222406</v>
       </c>
       <c r="E64" t="n">
         <v>1.531944101105237</v>
       </c>
       <c r="F64" t="n">
-        <v>5.100167265958031</v>
+        <v>5.100167265958036</v>
       </c>
       <c r="G64" t="n">
-        <v>5.35117514216454</v>
+        <v>5.351175142164541</v>
       </c>
       <c r="H64" t="n">
         <v>2.787259474180214</v>
@@ -5748,43 +5748,43 @@
         <v>0.4656760026737619</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.149893388682143</v>
+        <v>-0.1498933886821447</v>
       </c>
       <c r="L64" t="n">
         <v>1.594467604355909</v>
       </c>
       <c r="M64" t="n">
-        <v>-6.038934230626131</v>
+        <v>-6.038934230626127</v>
       </c>
       <c r="N64" t="n">
         <v>-4.511186383438768</v>
       </c>
       <c r="O64" t="n">
-        <v>-6.980725063967244</v>
+        <v>-6.98072506396724</v>
       </c>
       <c r="P64" t="n">
-        <v>-1.998420492532718</v>
+        <v>-1.99842049253272</v>
       </c>
       <c r="Q64" t="n">
         <v>-2.14838027634875</v>
       </c>
       <c r="R64" t="n">
-        <v>-1.38203314072536</v>
+        <v>-1.382033140725362</v>
       </c>
       <c r="S64" t="n">
-        <v>0.2727179061679608</v>
+        <v>0.2727179061679617</v>
       </c>
       <c r="T64" t="n">
-        <v>-0.2366134917059803</v>
+        <v>-0.2366134917059799</v>
       </c>
       <c r="U64" t="n">
-        <v>1.040561740806404</v>
+        <v>1.040561740806403</v>
       </c>
       <c r="V64" t="n">
         <v>0.6989816834909592</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1586918359298253</v>
+        <v>0.1586918359298254</v>
       </c>
       <c r="X64" t="n">
         <v>1.410558462856017</v>
@@ -5793,7 +5793,7 @@
         <v>0.2318772048301879</v>
       </c>
       <c r="Z64" t="n">
-        <v>-0.02699174636028456</v>
+        <v>-0.004134603503141748</v>
       </c>
       <c r="AA64" t="n">
         <v>0.6522702488726477</v>
@@ -5816,7 +5816,7 @@
         <v>-0.03520819506942074</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.5785556100966298</v>
+        <v>-0.5785556100966316</v>
       </c>
       <c r="G65" t="n">
         <v>4.901503867534512</v>
@@ -5831,7 +5831,7 @@
         <v>15.5677699455405</v>
       </c>
       <c r="K65" t="n">
-        <v>9.440743202485807</v>
+        <v>9.440743202485809</v>
       </c>
       <c r="L65" t="n">
         <v>21.93853259068479</v>
@@ -5858,7 +5858,7 @@
         <v>7.034174821693437</v>
       </c>
       <c r="T65" t="n">
-        <v>3.882763547578631</v>
+        <v>3.88276354757863</v>
       </c>
       <c r="U65" t="n">
         <v>10.74333813255224</v>
@@ -5873,10 +5873,10 @@
         <v>5.051443971498785</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.4905753092083877</v>
+        <v>0.4905753092083878</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.0320772857562299</v>
+        <v>0.05493442861337283</v>
       </c>
       <c r="AA65" t="n">
         <v>1.280275664051094</v>
@@ -5914,7 +5914,7 @@
         <v>12.22400551939181</v>
       </c>
       <c r="K66" t="n">
-        <v>7.565004258042088</v>
+        <v>7.565004258042087</v>
       </c>
       <c r="L66" t="n">
         <v>17.21155469061082</v>
@@ -5938,13 +5938,13 @@
         <v>4.875388725449465</v>
       </c>
       <c r="S66" t="n">
-        <v>1.729676015191299</v>
+        <v>1.7296760151913</v>
       </c>
       <c r="T66" t="n">
         <v>0.498643188209174</v>
       </c>
       <c r="U66" t="n">
-        <v>3.508165265337508</v>
+        <v>3.508165265337509</v>
       </c>
       <c r="V66" t="n">
         <v>0.9052802222115556</v>
@@ -5956,10 +5956,10 @@
         <v>2.049046957088511</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.2004017096104053</v>
+        <v>0.2004017096104052</v>
       </c>
       <c r="Z66" t="n">
-        <v>-0.03148273387525715</v>
+        <v>-0.008625591018114352</v>
       </c>
       <c r="AA66" t="n">
         <v>0.6482070437349721</v>
@@ -5982,7 +5982,7 @@
         <v>3.050186778711044</v>
       </c>
       <c r="F67" t="n">
-        <v>8.279564979015801</v>
+        <v>8.279564979015799</v>
       </c>
       <c r="G67" t="n">
         <v>10.90424533134421</v>
@@ -6024,16 +6024,16 @@
         <v>2.612050758400311</v>
       </c>
       <c r="T67" t="n">
-        <v>1.085781447853503</v>
+        <v>1.085781447853504</v>
       </c>
       <c r="U67" t="n">
-        <v>4.60470661123033</v>
+        <v>4.604706611230331</v>
       </c>
       <c r="V67" t="n">
         <v>1.265603789095899</v>
       </c>
       <c r="W67" t="n">
-        <v>0.3784200981450918</v>
+        <v>0.3784200981450919</v>
       </c>
       <c r="X67" t="n">
         <v>2.559303414086987</v>
@@ -6042,7 +6042,7 @@
         <v>0.2578039258317648</v>
       </c>
       <c r="Z67" t="n">
-        <v>-0.01477100282934484</v>
+        <v>0.008086140027797986</v>
       </c>
       <c r="AA67" t="n">
         <v>0.7797126952363743</v>
@@ -6059,16 +6059,16 @@
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.4875592710372523</v>
+        <v>-0.4875592710372518</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.4651464150656601</v>
+        <v>-0.4651464150656603</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3900103163905451</v>
+        <v>-0.3900103163905415</v>
       </c>
       <c r="G68" t="n">
-        <v>1.370582367361463</v>
+        <v>1.370582367361464</v>
       </c>
       <c r="H68" t="n">
         <v>0.384607983200917</v>
@@ -6080,19 +6080,19 @@
         <v>1.586067516966542</v>
       </c>
       <c r="K68" t="n">
-        <v>0.4876817662228605</v>
+        <v>0.4876817662228587</v>
       </c>
       <c r="L68" t="n">
         <v>3.268845155603604</v>
       </c>
       <c r="M68" t="n">
-        <v>1.224104888068801</v>
+        <v>1.224104888068803</v>
       </c>
       <c r="N68" t="n">
         <v>0.1109784442912174</v>
       </c>
       <c r="O68" t="n">
-        <v>2.752458855095886</v>
+        <v>2.752458855095888</v>
       </c>
       <c r="P68" t="n">
         <v>2.324539049336768</v>
@@ -6101,7 +6101,7 @@
         <v>0.910838659047136</v>
       </c>
       <c r="R68" t="n">
-        <v>4.070704652303715</v>
+        <v>4.070704652303714</v>
       </c>
       <c r="S68" t="n">
         <v>2.284671104169684</v>
@@ -6116,7 +6116,7 @@
         <v>1.447833776011223</v>
       </c>
       <c r="W68" t="n">
-        <v>0.5198388418206507</v>
+        <v>0.5198388418206505</v>
       </c>
       <c r="X68" t="n">
         <v>2.574461408355418</v>
@@ -6125,7 +6125,7 @@
         <v>0.3544701849224269</v>
       </c>
       <c r="Z68" t="n">
-        <v>-0.004418243294697356</v>
+        <v>0.01843889956244549</v>
       </c>
       <c r="AA68" t="n">
         <v>0.9011567084501538</v>
@@ -6148,7 +6148,7 @@
         <v>3.738475369725103</v>
       </c>
       <c r="F69" t="n">
-        <v>9.579794554180472</v>
+        <v>9.579794554180468</v>
       </c>
       <c r="G69" t="n">
         <v>17.31833086589086</v>
@@ -6160,7 +6160,7 @@
         <v>23.92818397613077</v>
       </c>
       <c r="J69" t="n">
-        <v>21.74693759812503</v>
+        <v>21.74693759812504</v>
       </c>
       <c r="K69" t="n">
         <v>13.68229662206159</v>
@@ -6190,7 +6190,7 @@
         <v>4.87587663277967</v>
       </c>
       <c r="T69" t="n">
-        <v>2.369303387870136</v>
+        <v>2.369303387870135</v>
       </c>
       <c r="U69" t="n">
         <v>8.131781102164554</v>
@@ -6208,7 +6208,7 @@
         <v>0.2938322090620291</v>
       </c>
       <c r="Z69" t="n">
-        <v>-0.00882588003872401</v>
+        <v>0.01403126281841884</v>
       </c>
       <c r="AA69" t="n">
         <v>0.8986976950575981</v>
@@ -6231,28 +6231,28 @@
         <v>-0.9221397985216762</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.941214629885479</v>
+        <v>-1.941214629885477</v>
       </c>
       <c r="G70" t="n">
         <v>-2.632154477378692</v>
       </c>
       <c r="H70" t="n">
-        <v>-1.941563356706589</v>
+        <v>-1.941563356706588</v>
       </c>
       <c r="I70" t="n">
         <v>-2.977027250162394</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.06134865869616135</v>
+        <v>-0.06134865869616313</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.7011558172205419</v>
+        <v>-0.7011558172205428</v>
       </c>
       <c r="L70" t="n">
         <v>1.030776153828077</v>
       </c>
       <c r="M70" t="n">
-        <v>3.628215899471527</v>
+        <v>3.628215899471528</v>
       </c>
       <c r="N70" t="n">
         <v>1.591862462159383</v>
@@ -6267,22 +6267,22 @@
         <v>2.191295700626521</v>
       </c>
       <c r="R70" t="n">
-        <v>6.26581126392016</v>
+        <v>6.265811263920158</v>
       </c>
       <c r="S70" t="n">
         <v>3.182147242949293</v>
       </c>
       <c r="T70" t="n">
-        <v>1.656136907822947</v>
+        <v>1.656136907822948</v>
       </c>
       <c r="U70" t="n">
-        <v>4.897041647306548</v>
+        <v>4.897041647306547</v>
       </c>
       <c r="V70" t="n">
         <v>1.811172784950866</v>
       </c>
       <c r="W70" t="n">
-        <v>0.7247025063649679</v>
+        <v>0.7247025063649678</v>
       </c>
       <c r="X70" t="n">
         <v>3.086812328844948</v>
@@ -6291,7 +6291,7 @@
         <v>0.4098520886980489</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.01354861189927872</v>
+        <v>0.0364057547564216</v>
       </c>
       <c r="AA70" t="n">
         <v>1.034353849260057</v>
@@ -6314,10 +6314,10 @@
         <v>-2.342425890767943</v>
       </c>
       <c r="F71" t="n">
-        <v>-6.060824891806573</v>
+        <v>-6.060824891806569</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.309897028238514</v>
+        <v>-4.309897028238512</v>
       </c>
       <c r="H71" t="n">
         <v>-2.883714180240204</v>
@@ -6329,10 +6329,10 @@
         <v>3.960788273585395</v>
       </c>
       <c r="K71" t="n">
-        <v>1.837284110644729</v>
+        <v>1.83728411064473</v>
       </c>
       <c r="L71" t="n">
-        <v>6.551829482197576</v>
+        <v>6.551829482197575</v>
       </c>
       <c r="M71" t="n">
         <v>13.63856287218286</v>
@@ -6356,16 +6356,16 @@
         <v>5.562115317099501</v>
       </c>
       <c r="T71" t="n">
-        <v>3.139732267754907</v>
+        <v>3.139732267754906</v>
       </c>
       <c r="U71" t="n">
-        <v>8.268320532123191</v>
+        <v>8.268320532123189</v>
       </c>
       <c r="V71" t="n">
         <v>2.612353372665103</v>
       </c>
       <c r="W71" t="n">
-        <v>1.092318107600665</v>
+        <v>1.092318107600664</v>
       </c>
       <c r="X71" t="n">
         <v>4.410861013775236</v>
@@ -6374,7 +6374,7 @@
         <v>0.5240711168739078</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.03531314912313872</v>
+        <v>0.05817029198028165</v>
       </c>
       <c r="AA71" t="n">
         <v>1.282647379880269</v>
@@ -6397,7 +6397,7 @@
         <v>-0.2665034026274637</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.3275808717663669</v>
+        <v>-0.3275808717663651</v>
       </c>
       <c r="G72" t="n">
         <v>2.490155177728014</v>
@@ -6415,7 +6415,7 @@
         <v>3.434889393349458</v>
       </c>
       <c r="L72" t="n">
-        <v>9.41527964137477</v>
+        <v>9.415279641374768</v>
       </c>
       <c r="M72" t="n">
         <v>9.035084380066259</v>
@@ -6439,7 +6439,7 @@
         <v>3.872872808534467</v>
       </c>
       <c r="T72" t="n">
-        <v>2.004328748009099</v>
+        <v>2.004328748009098</v>
       </c>
       <c r="U72" t="n">
         <v>6.112308219827248</v>
@@ -6457,7 +6457,7 @@
         <v>0.3991651222025013</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.008165307771632987</v>
+        <v>0.03102245062877586</v>
       </c>
       <c r="AA72" t="n">
         <v>1.028093523419968</v>
